--- a/Lab2/data.xlsx
+++ b/Lab2/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ENGO634\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ENGO634\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88797F44-BC8D-467C-9103-CD16F93688ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D46D04A-B4BB-47D4-9537-A1D0A5F7F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22785" yWindow="1920" windowWidth="19545" windowHeight="19410" xr2:uid="{B3D8C22C-DA99-48B4-83B6-00DA3FDD2273}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{B3D8C22C-DA99-48B4-83B6-00DA3FDD2273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,24 +103,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -210,18 +192,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,13 +530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83C8A12-1AD3-4317-A028-6D0701DF794F}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1347</v>
       </c>
@@ -618,17 +588,17 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>19161</v>
       </c>
       <c r="B3" s="5">
         <v>1470</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>19175</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1484</v>
       </c>
       <c r="E3" s="5">
@@ -644,20 +614,20 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>1345</v>
       </c>
       <c r="B4" s="5">
         <v>1471</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1358</v>
       </c>
       <c r="D4" s="5">
         <v>1473</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1345</v>
       </c>
       <c r="F4" s="5">
@@ -670,7 +640,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4">
         <v>19163</v>
       </c>
@@ -696,14 +666,14 @@
         <v>19283</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>843</v>
       </c>
       <c r="B6" s="5">
         <v>10379</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>849</v>
       </c>
       <c r="D6" s="5">
@@ -722,14 +692,14 @@
         <v>10379</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <v>19666</v>
       </c>
       <c r="B7" s="5">
         <v>10376</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>19672</v>
       </c>
       <c r="D7" s="5">
@@ -748,17 +718,17 @@
         <v>10377</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>10254</v>
       </c>
       <c r="B8" s="5">
         <v>966</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>10267</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>973</v>
       </c>
       <c r="E8" s="5">
@@ -774,7 +744,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <v>10254</v>
       </c>
@@ -800,7 +770,7 @@
         <v>19789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>1347</v>
       </c>
@@ -813,8 +783,12 @@
       <c r="D10" s="2">
         <v>19286</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>1348</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19286</v>
+      </c>
       <c r="G10" s="3">
         <v>1347</v>
       </c>
@@ -822,7 +796,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>19175</v>
       </c>
@@ -848,7 +822,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>1358</v>
       </c>
@@ -874,7 +848,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
         <v>19162</v>
       </c>
@@ -888,10 +862,10 @@
         <v>19297</v>
       </c>
       <c r="E13" s="5">
-        <v>19675</v>
+        <v>19161</v>
       </c>
       <c r="F13" s="6">
-        <v>10391</v>
+        <v>19296</v>
       </c>
       <c r="G13" s="7">
         <v>19163</v>
@@ -900,7 +874,7 @@
         <v>19297</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>849</v>
       </c>
@@ -926,7 +900,7 @@
         <v>10379</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>19672</v>
       </c>
@@ -952,7 +926,7 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>10267</v>
       </c>
@@ -968,7 +942,7 @@
       <c r="E16" s="5">
         <v>10268</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>947</v>
       </c>
       <c r="G16" s="7">
@@ -978,7 +952,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <v>10254</v>
       </c>
@@ -1004,23 +978,23 @@
         <v>19795</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>9447</v>
       </c>
       <c r="B18" s="2">
         <v>2295</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="2">
         <v>9458</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="2">
         <v>2293</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="2">
         <v>9448</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="2">
         <v>2294</v>
       </c>
       <c r="G18" s="3">
@@ -1030,7 +1004,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <v>10053</v>
       </c>
@@ -1056,14 +1030,14 @@
         <v>10883</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
         <v>11843</v>
       </c>
       <c r="B20" s="5">
         <v>17255</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="5">
         <v>11851</v>
       </c>
       <c r="D20" s="5">
@@ -1072,7 +1046,7 @@
       <c r="E20" s="5">
         <v>11848</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="5">
         <v>17245</v>
       </c>
       <c r="G20" s="7">
@@ -1082,23 +1056,23 @@
         <v>17251</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>17844</v>
       </c>
       <c r="B21" s="5">
         <v>18028</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="5">
         <v>17852</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <v>18033</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <v>17862</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="5">
         <v>18039</v>
       </c>
       <c r="G21" s="7">
@@ -1108,23 +1082,23 @@
         <v>18027</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4">
         <v>11782</v>
       </c>
       <c r="B22" s="5">
         <v>1172</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="5">
         <v>11781</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <v>1172</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>11781</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>1172</v>
       </c>
       <c r="G22" s="7">
@@ -1134,7 +1108,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4">
         <v>14000</v>
       </c>
@@ -1147,10 +1121,10 @@
       <c r="D23" s="5">
         <v>9749</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="5">
         <v>14007</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>9748</v>
       </c>
       <c r="G23" s="7">
@@ -1160,7 +1134,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>9612</v>
       </c>
@@ -1173,10 +1147,10 @@
       <c r="D24" s="5">
         <v>14507</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="5">
         <v>9612</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>14502</v>
       </c>
       <c r="G24" s="7">
@@ -1186,7 +1160,7 @@
         <v>14505</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
         <v>14684</v>
       </c>
@@ -1199,10 +1173,10 @@
       <c r="D25" s="5">
         <v>18211</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>14685</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>18205</v>
       </c>
       <c r="G25" s="7">
@@ -1212,7 +1186,7 @@
         <v>18205</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>1404</v>
       </c>
@@ -1238,7 +1212,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
         <v>2269</v>
       </c>
@@ -1264,7 +1238,7 @@
         <v>10786</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
         <v>4158</v>
       </c>
@@ -1290,7 +1264,7 @@
         <v>17083</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4">
         <v>10140</v>
       </c>
@@ -1316,7 +1290,7 @@
         <v>17688</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>3727</v>
       </c>
@@ -1342,7 +1316,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
         <v>6154</v>
       </c>
@@ -1368,7 +1342,7 @@
         <v>9532</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4">
         <v>1948</v>
       </c>
@@ -1394,7 +1368,7 @@
         <v>14419</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
         <v>6982</v>
       </c>
@@ -1420,7 +1394,7 @@
         <v>17949</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>9406</v>
       </c>
@@ -1446,7 +1420,7 @@
         <v>9117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4">
         <v>18185</v>
       </c>
@@ -1472,7 +1446,7 @@
         <v>10723</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4">
         <v>9350</v>
       </c>
@@ -1498,7 +1472,7 @@
         <v>19176</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4">
         <v>17824</v>
       </c>
@@ -1524,7 +1498,7 @@
         <v>18056</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4">
         <v>9459</v>
       </c>
@@ -1550,7 +1524,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4">
         <v>17434</v>
       </c>
@@ -1576,7 +1550,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>1537</v>
       </c>
@@ -1602,7 +1576,7 @@
         <v>9029</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
         <v>10332</v>
       </c>
@@ -1628,7 +1602,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
         <v>1836</v>
       </c>
@@ -1654,7 +1628,7 @@
         <v>19046</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4">
         <v>10120</v>
       </c>
@@ -1680,7 +1654,7 @@
         <v>17717</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4">
         <v>1410</v>
       </c>
@@ -1693,8 +1667,12 @@
       <c r="D44" s="5">
         <v>2095</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="5">
+        <v>1409</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2082</v>
+      </c>
       <c r="G44" s="5">
         <v>1410</v>
       </c>
@@ -1702,7 +1680,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4">
         <v>9448</v>
       </c>

--- a/Lab2/data.xlsx
+++ b/Lab2/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ENGO634\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ENGO634\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D46D04A-B4BB-47D4-9537-A1D0A5F7F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5DFFF-75CD-4F85-B2A4-131A3F8C8498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{B3D8C22C-DA99-48B4-83B6-00DA3FDD2273}"/>
+    <workbookView xWindow="-14400" yWindow="1740" windowWidth="14400" windowHeight="16200" xr2:uid="{B3D8C22C-DA99-48B4-83B6-00DA3FDD2273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,13 +530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83C8A12-1AD3-4317-A028-6D0701DF794F}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1347</v>
       </c>
@@ -588,7 +588,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>19161</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1345</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>19163</v>
       </c>
@@ -666,7 +666,7 @@
         <v>19283</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>843</v>
       </c>
@@ -692,7 +692,7 @@
         <v>10379</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>19666</v>
       </c>
@@ -718,7 +718,7 @@
         <v>10377</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>10254</v>
       </c>
@@ -744,7 +744,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10254</v>
       </c>
@@ -770,7 +770,7 @@
         <v>19789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1347</v>
       </c>
@@ -796,7 +796,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>19175</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1358</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>19162</v>
       </c>
@@ -874,7 +874,7 @@
         <v>19297</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>849</v>
       </c>
@@ -900,7 +900,7 @@
         <v>10379</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>19672</v>
       </c>
@@ -926,7 +926,7 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>10267</v>
       </c>
@@ -952,7 +952,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>10254</v>
       </c>
@@ -978,7 +978,7 @@
         <v>19795</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>9447</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>10053</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>10056</v>
       </c>
       <c r="D19" s="5">
-        <v>10083</v>
+        <v>10883</v>
       </c>
       <c r="E19" s="5">
         <v>10048</v>
@@ -1030,7 +1030,7 @@
         <v>10883</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>11843</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>17251</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17844</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>18027</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>11782</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14000</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>9612</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>14505</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>14684</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>18205</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1404</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2269</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>10786</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>4158</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>17083</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>10140</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>17688</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>3727</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>6154</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>9532</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>1948</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>14419</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>6982</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>17949</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>9406</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>9117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>18185</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>10723</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>9350</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>19176</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>17824</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>18056</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>9459</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>17434</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1537</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>9029</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>10332</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1836</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>19046</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>10120</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>17717</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>1410</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>9448</v>
       </c>

--- a/Lab2/data.xlsx
+++ b/Lab2/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ENGO634\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5DFFF-75CD-4F85-B2A4-131A3F8C8498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E13B7E6-BFB1-4A98-A1E8-390CE1A81086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="1740" windowWidth="14400" windowHeight="16200" xr2:uid="{B3D8C22C-DA99-48B4-83B6-00DA3FDD2273}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18735" windowHeight="21600" xr2:uid="{B3D8C22C-DA99-48B4-83B6-00DA3FDD2273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83C8A12-1AD3-4317-A028-6D0701DF794F}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>10268</v>
       </c>
       <c r="F16" s="5">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="G16" s="7">
         <v>10268</v>
@@ -1402,10 +1402,10 @@
         <v>9117</v>
       </c>
       <c r="C34" s="2">
-        <v>945</v>
+        <v>9405</v>
       </c>
       <c r="D34" s="2">
-        <v>912</v>
+        <v>9118</v>
       </c>
       <c r="E34" s="2">
         <v>9407</v>
@@ -1428,10 +1428,10 @@
         <v>10723</v>
       </c>
       <c r="C35" s="5">
-        <v>1817</v>
+        <v>18186</v>
       </c>
       <c r="D35" s="5">
-        <v>1071</v>
+        <v>10722</v>
       </c>
       <c r="E35" s="5">
         <v>18187</v>
@@ -1454,10 +1454,10 @@
         <v>19175</v>
       </c>
       <c r="C36" s="5">
-        <v>931</v>
+        <v>9350</v>
       </c>
       <c r="D36" s="5">
-        <v>1917</v>
+        <v>19176</v>
       </c>
       <c r="E36" s="5">
         <v>9350</v>
@@ -1480,10 +1480,10 @@
         <v>18055</v>
       </c>
       <c r="C37" s="5">
-        <v>1780</v>
+        <v>17824</v>
       </c>
       <c r="D37" s="5">
-        <v>1805</v>
+        <v>18056</v>
       </c>
       <c r="E37" s="5">
         <v>17825</v>
@@ -1506,10 +1506,10 @@
         <v>2291</v>
       </c>
       <c r="C38" s="5">
-        <v>945</v>
+        <v>9458</v>
       </c>
       <c r="D38" s="5">
-        <v>229</v>
+        <v>2291</v>
       </c>
       <c r="E38" s="5">
         <v>9458</v>
@@ -1532,10 +1532,10 @@
         <v>1693</v>
       </c>
       <c r="C39" s="5">
-        <v>1742</v>
+        <v>17435</v>
       </c>
       <c r="D39" s="5">
-        <v>168</v>
+        <v>1694</v>
       </c>
       <c r="E39" s="5">
         <v>17435</v>
@@ -1558,7 +1558,7 @@
         <v>9029</v>
       </c>
       <c r="C40" s="2">
-        <v>1572</v>
+        <v>1536</v>
       </c>
       <c r="D40" s="2">
         <v>9034</v>
